--- a/other2/thomas/hashing/CF_113B_Petr#/CF_113B_Petr#.xlsx
+++ b/other2/thomas/hashing/CF_113B_Petr#/CF_113B_Petr#.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\other2\thomas\hashing\CF_113B_Petr#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\hashing\CF_113B_Petr#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1532B-5C5F-468D-8DD7-F437DD48FDA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652CC61-4E33-464D-BBDA-CF1B494D6015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" xr2:uid="{7150B7AB-95F0-4B10-B1CC-22194FBB8800}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=" 错误案例" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="11">
   <si>
     <t>a</t>
   </si>
@@ -60,12 +61,20 @@
     <t>ou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +94,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +137,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +184,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2003,19 +2074,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B653A9-23B7-4491-8316-A6CD73647884}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.2109375" style="7" customWidth="1"/>
+    <col min="2" max="12" width="3.28515625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>10</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A679BE28-4225-48C2-AAF1-F1E15871B05A}">
   <dimension ref="B1:R70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="5.3984375" customWidth="1"/>
+    <col min="2" max="9" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="23" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -2067,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2111,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="23" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2129,7 +2814,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="23" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2147,7 +2832,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -2167,7 +2852,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" ht="23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2187,7 +2872,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="15" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" ht="23" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -2212,7 +2897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
@@ -2229,10 +2914,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -2240,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -2257,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -2299,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +3009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>0</v>
       </c>
@@ -2341,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>2</v>
       </c>
@@ -2358,11 +3043,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>0</v>
       </c>
@@ -2379,7 +3064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +3081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +3091,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>0</v>
       </c>
@@ -2423,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
@@ -2440,7 +3125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>4</v>
@@ -2450,7 +3135,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>0</v>
       </c>
@@ -2467,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
@@ -2484,7 +3169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="4" t="s">
@@ -2494,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>0</v>
       </c>
@@ -2511,7 +3196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" ht="23" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>2</v>
       </c>
